--- a/meta_stra_framwork/result/split/remain_expre.xlsx
+++ b/meta_stra_framwork/result/split/remain_expre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>expre_long</t>
   </si>
@@ -22,28 +22,16 @@
     <t>expre_short</t>
   </si>
   <si>
-    <t>['K#90#1&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+K#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+K#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+K#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre+OBV#0#0&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre+OBV#0#0&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+K_shift_1#10#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+K_shift_1#10#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#70#1&amp;thre+OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre+OBV#0#0&amp;thre']</t>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
   </si>
 </sst>
 </file>
@@ -401,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,51 +422,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/split/remain_expre.xlsx
+++ b/meta_stra_framwork/result/split/remain_expre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>expre_long</t>
   </si>
@@ -22,13 +22,7 @@
     <t>expre_short</t>
   </si>
   <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
     <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
   </si>
   <si>
     <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
@@ -389,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,18 +405,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
